--- a/similarities/split_global/harmonic_similarity_timestamps_116.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,94 +484,116 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'F:min7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.240000', '0:00:17.770000'), ('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:41.090000', '0:01:47.520000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=14.24', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=101.09', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -581,37 +603,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:22.160000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -619,555 +641,601 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000'), ('0:00:33.140000', '0:00:37.240000')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:01:21.100000', '0:01:27.580000'), ('0:00:38.620000', '0:00:44.060000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:40.280000', '0:00:45.520000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:21.100000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=21.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'C', 'F']]</t>
+          <t>['E', 'A', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
+          <t>['F:maj', 'Bb:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
+          <t>('0:00:00.440395', '0:00:08.010228')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:03.652000', '0:02:11.396000')]</t>
+          <t>('0:00:45.697000', '0:01:02.760000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=13.976734']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=0.440395</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=45.697</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000')]</t>
+          <t>('0:01:21.340000', '0:01:32.140000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:22.996837')]</t>
+          <t>('0:00:20.380000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=81.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:00:38.900000', '0:00:47.160000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+          <t>('0:01:51.280000', '0:02:04.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=111.28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+          <t>('0:00:39.148775', '0:00:43.514126')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=39.148775</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min', 'Eb/3'], ['F:min', 'C:min', 'Eb/3']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'E:min/G', 'D:maj/F#'], ['E:min/B', 'B:min', 'D:maj/A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.490000', '0:00:04.314000'), ('0:00:34.098000', '0:00:38.337000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:34.920000', '0:00:39.300000'), ('0:00:29.860000', '0:00:36.820000')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=1.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=34.098']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=34.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=29.86']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:19.647000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=19.647</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:03.200000', '0:00:06.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:03.770000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=3.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=3.77</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
